--- a/Data/raw_excel/COMPETITIVETRAITTEST.xlsx
+++ b/Data/raw_excel/COMPETITIVETRAITTEST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonhendrickson/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonhendrickson/Documents/Github_Projects/Vernal_Pool_CommunityDiversity/Data/raw_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{20173206-9BE9-8841-B210-AF230EEC5ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD279EA-07FD-DC42-BB27-56B35FA30CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5200" yWindow="700" windowWidth="28040" windowHeight="17440" activeTab="1"/>
+    <workbookView xWindow="5200" yWindow="700" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="COMPETITIVETRAITTEST" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="103">
-  <si>
-    <t>clusters</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="102">
   <si>
     <t>Year</t>
   </si>
@@ -44,267 +41,42 @@
     <t>Pool</t>
   </si>
   <si>
-    <t>A1_E_B</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>A1_M_B</t>
-  </si>
-  <si>
-    <t>A1_L_B</t>
-  </si>
-  <si>
     <t>A1_E_E</t>
   </si>
   <si>
-    <t>A1_M_E</t>
-  </si>
-  <si>
-    <t>A1_L_E</t>
-  </si>
-  <si>
-    <t>A1_E_U</t>
-  </si>
-  <si>
-    <t>A1_M_U</t>
-  </si>
-  <si>
-    <t>A1_L_U</t>
-  </si>
-  <si>
-    <t>B1_E_B</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>B1_M_B</t>
-  </si>
-  <si>
-    <t>B1_L_B</t>
-  </si>
-  <si>
     <t>B1_E_E</t>
   </si>
   <si>
-    <t>B1_M_E</t>
-  </si>
-  <si>
-    <t>B1_L_E</t>
-  </si>
-  <si>
-    <t>B1_E_U</t>
-  </si>
-  <si>
-    <t>B1_M_U</t>
-  </si>
-  <si>
-    <t>B1_L_U</t>
-  </si>
-  <si>
-    <t>C1_E_B</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
-    <t>C1_M_B</t>
-  </si>
-  <si>
-    <t>C1_L_B</t>
-  </si>
-  <si>
     <t>C1_E_E</t>
   </si>
   <si>
-    <t>C1_M_E</t>
-  </si>
-  <si>
-    <t>C1_L_E</t>
-  </si>
-  <si>
-    <t>C1_E_U</t>
-  </si>
-  <si>
-    <t>C1_M_U</t>
-  </si>
-  <si>
-    <t>C1_L_U</t>
-  </si>
-  <si>
-    <t>A2_E_B</t>
-  </si>
-  <si>
-    <t>A2_M_B</t>
-  </si>
-  <si>
-    <t>A2_L_B</t>
-  </si>
-  <si>
     <t>A2_E_E</t>
   </si>
   <si>
-    <t>A2_M_E</t>
-  </si>
-  <si>
-    <t>A2_L_E</t>
-  </si>
-  <si>
-    <t>A2_E_U</t>
-  </si>
-  <si>
-    <t>A2_M_U</t>
-  </si>
-  <si>
-    <t>A2_L_U</t>
-  </si>
-  <si>
-    <t>B2_E_B</t>
-  </si>
-  <si>
-    <t>B2_M_B</t>
-  </si>
-  <si>
-    <t>B2_L_B</t>
-  </si>
-  <si>
     <t>B2_E_E</t>
   </si>
   <si>
-    <t>B2_M_E</t>
-  </si>
-  <si>
-    <t>B2_L_E</t>
-  </si>
-  <si>
-    <t>B2_E_U</t>
-  </si>
-  <si>
-    <t>B2_M_U</t>
-  </si>
-  <si>
-    <t>B2_L_U</t>
-  </si>
-  <si>
-    <t>C2_E_B</t>
-  </si>
-  <si>
-    <t>C2_M_B</t>
-  </si>
-  <si>
-    <t>C2_L_B</t>
-  </si>
-  <si>
     <t>C2_E_E</t>
   </si>
   <si>
-    <t>C2_M_E</t>
-  </si>
-  <si>
-    <t>C2_L_E</t>
-  </si>
-  <si>
-    <t>C2_E_U</t>
-  </si>
-  <si>
-    <t>C2_M_U</t>
-  </si>
-  <si>
-    <t>C2_L_U</t>
-  </si>
-  <si>
-    <t>A3_E_B</t>
-  </si>
-  <si>
-    <t>A3_M_B</t>
-  </si>
-  <si>
-    <t>A3_L_B</t>
-  </si>
-  <si>
     <t>A3_E_E</t>
   </si>
   <si>
-    <t>A3_M_E</t>
-  </si>
-  <si>
-    <t>A3_L_E</t>
-  </si>
-  <si>
-    <t>A3_E_U</t>
-  </si>
-  <si>
-    <t>A3_M_U</t>
-  </si>
-  <si>
-    <t>A3_L_U</t>
-  </si>
-  <si>
-    <t>B3_E_B</t>
-  </si>
-  <si>
-    <t>B3_M_B</t>
-  </si>
-  <si>
-    <t>B3_L_B</t>
-  </si>
-  <si>
     <t>B3_E_E</t>
   </si>
   <si>
-    <t>B3_M_E</t>
-  </si>
-  <si>
-    <t>B3_L_E</t>
-  </si>
-  <si>
-    <t>B3_E_U</t>
-  </si>
-  <si>
-    <t>B3_M_U</t>
-  </si>
-  <si>
-    <t>B3_L_U</t>
-  </si>
-  <si>
-    <t>C3_E_B</t>
-  </si>
-  <si>
-    <t>C3_M_B</t>
-  </si>
-  <si>
-    <t>C3_L_B</t>
-  </si>
-  <si>
     <t>C3_E_E</t>
   </si>
   <si>
-    <t>C3_M_E</t>
-  </si>
-  <si>
-    <t>C3_L_E</t>
-  </si>
-  <si>
-    <t>C3_E_U</t>
-  </si>
-  <si>
-    <t>C3_M_U</t>
-  </si>
-  <si>
-    <t>C3_L_U</t>
-  </si>
-  <si>
-    <t>MNTD</t>
-  </si>
-  <si>
-    <t>MPD</t>
-  </si>
-  <si>
-    <t>PDfaith</t>
-  </si>
-  <si>
     <t>Richness</t>
   </si>
   <si>
@@ -330,12 +102,237 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>Clusters</t>
+  </si>
+  <si>
+    <t>PC1_Mean</t>
+  </si>
+  <si>
+    <t>PC1_Variance</t>
+  </si>
+  <si>
+    <t>A1_B_E</t>
+  </si>
+  <si>
+    <t>A1_B_L</t>
+  </si>
+  <si>
+    <t>A1_B_M</t>
+  </si>
+  <si>
+    <t>A1_E_L</t>
+  </si>
+  <si>
+    <t>A1_E_M</t>
+  </si>
+  <si>
+    <t>A1_U_E</t>
+  </si>
+  <si>
+    <t>A1_U_L</t>
+  </si>
+  <si>
+    <t>A1_U_M</t>
+  </si>
+  <si>
+    <t>A2_B_E</t>
+  </si>
+  <si>
+    <t>A2_B_L</t>
+  </si>
+  <si>
+    <t>A2_B_M</t>
+  </si>
+  <si>
+    <t>A2_E_L</t>
+  </si>
+  <si>
+    <t>A2_E_M</t>
+  </si>
+  <si>
+    <t>A2_U_E</t>
+  </si>
+  <si>
+    <t>A2_U_L</t>
+  </si>
+  <si>
+    <t>A2_U_M</t>
+  </si>
+  <si>
+    <t>A3_B_E</t>
+  </si>
+  <si>
+    <t>A3_B_L</t>
+  </si>
+  <si>
+    <t>A3_B_M</t>
+  </si>
+  <si>
+    <t>A3_E_L</t>
+  </si>
+  <si>
+    <t>A3_E_M</t>
+  </si>
+  <si>
+    <t>A3_U_E</t>
+  </si>
+  <si>
+    <t>A3_U_L</t>
+  </si>
+  <si>
+    <t>A3_U_M</t>
+  </si>
+  <si>
+    <t>B1_B_E</t>
+  </si>
+  <si>
+    <t>B1_B_L</t>
+  </si>
+  <si>
+    <t>B1_B_M</t>
+  </si>
+  <si>
+    <t>B1_E_L</t>
+  </si>
+  <si>
+    <t>B1_E_M</t>
+  </si>
+  <si>
+    <t>B1_U_E</t>
+  </si>
+  <si>
+    <t>B1_U_L</t>
+  </si>
+  <si>
+    <t>B1_U_M</t>
+  </si>
+  <si>
+    <t>B2_B_E</t>
+  </si>
+  <si>
+    <t>B2_B_L</t>
+  </si>
+  <si>
+    <t>B2_B_M</t>
+  </si>
+  <si>
+    <t>B2_E_L</t>
+  </si>
+  <si>
+    <t>B2_E_M</t>
+  </si>
+  <si>
+    <t>B2_U_E</t>
+  </si>
+  <si>
+    <t>B2_U_L</t>
+  </si>
+  <si>
+    <t>B2_U_M</t>
+  </si>
+  <si>
+    <t>B3_B_E</t>
+  </si>
+  <si>
+    <t>B3_B_L</t>
+  </si>
+  <si>
+    <t>B3_B_M</t>
+  </si>
+  <si>
+    <t>B3_E_L</t>
+  </si>
+  <si>
+    <t>B3_E_M</t>
+  </si>
+  <si>
+    <t>B3_U_E</t>
+  </si>
+  <si>
+    <t>B3_U_L</t>
+  </si>
+  <si>
+    <t>B3_U_M</t>
+  </si>
+  <si>
+    <t>C1_B_E</t>
+  </si>
+  <si>
+    <t>C1_B_L</t>
+  </si>
+  <si>
+    <t>C1_B_M</t>
+  </si>
+  <si>
+    <t>C1_E_L</t>
+  </si>
+  <si>
+    <t>C1_E_M</t>
+  </si>
+  <si>
+    <t>C1_U_E</t>
+  </si>
+  <si>
+    <t>C1_U_L</t>
+  </si>
+  <si>
+    <t>C1_U_M</t>
+  </si>
+  <si>
+    <t>C2_B_E</t>
+  </si>
+  <si>
+    <t>C2_B_L</t>
+  </si>
+  <si>
+    <t>C2_B_M</t>
+  </si>
+  <si>
+    <t>C2_E_L</t>
+  </si>
+  <si>
+    <t>C2_E_M</t>
+  </si>
+  <si>
+    <t>C2_U_E</t>
+  </si>
+  <si>
+    <t>C2_U_L</t>
+  </si>
+  <si>
+    <t>C2_U_M</t>
+  </si>
+  <si>
+    <t>C3_B_E</t>
+  </si>
+  <si>
+    <t>C3_B_L</t>
+  </si>
+  <si>
+    <t>C3_B_M</t>
+  </si>
+  <si>
+    <t>C3_E_L</t>
+  </si>
+  <si>
+    <t>C3_E_M</t>
+  </si>
+  <si>
+    <t>C3_U_E</t>
+  </si>
+  <si>
+    <t>C3_U_L</t>
+  </si>
+  <si>
+    <t>C3_U_M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1310,69 +1307,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="4" max="4" width="18.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.5" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
       <c r="H1" t="s">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="J1" t="s">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="K1" t="s">
-        <v>94</v>
+        <v>21</v>
       </c>
       <c r="L1" t="s">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
-        <v>96</v>
+        <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>97</v>
-      </c>
-      <c r="O1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1384,42 +1374,39 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H2">
-        <v>0.24988405499999999</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>0.24128476500000001</v>
+        <v>5.9719873149999998</v>
       </c>
       <c r="J2">
-        <v>0.25239674499999998</v>
+        <v>9.5</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>38.213530660000004</v>
       </c>
       <c r="L2">
-        <v>5.9719873149999998</v>
+        <v>25</v>
       </c>
       <c r="M2">
-        <v>9.5</v>
+        <v>-1.0913095100000001</v>
       </c>
       <c r="N2">
-        <v>38.213530660000004</v>
-      </c>
-      <c r="O2">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1.2990688050000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1431,42 +1418,39 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H3">
-        <v>0.20177360499999999</v>
+        <v>7</v>
       </c>
       <c r="I3">
-        <v>-1.972721867</v>
+        <v>74.245351589999999</v>
       </c>
       <c r="J3">
-        <v>-0.50041516900000005</v>
+        <v>37.224285709999997</v>
       </c>
       <c r="K3">
-        <v>8</v>
+        <v>111.9217759</v>
       </c>
       <c r="L3">
-        <v>647.70110499999998</v>
+        <v>50.857142860000003</v>
       </c>
       <c r="M3">
-        <v>11.3775</v>
+        <v>2.3244439360000002</v>
       </c>
       <c r="N3">
-        <v>681.99154329999999</v>
-      </c>
-      <c r="O3">
-        <v>24.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.97174583800000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1478,42 +1462,39 @@
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4">
-        <v>1.7051826059999999</v>
+        <v>8</v>
       </c>
       <c r="I4">
-        <v>0.50599460500000004</v>
+        <v>647.70110499999998</v>
       </c>
       <c r="J4">
-        <v>1.3391133630000001</v>
+        <v>11.3775</v>
       </c>
       <c r="K4">
+        <v>681.99154329999999</v>
+      </c>
+      <c r="L4">
+        <v>24.25</v>
+      </c>
+      <c r="M4">
+        <v>-1.0396618339999999</v>
+      </c>
+      <c r="N4">
+        <v>1.6615452660000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
-      </c>
-      <c r="L4">
-        <v>74.245351589999999</v>
-      </c>
-      <c r="M4">
-        <v>37.224285709999997</v>
-      </c>
-      <c r="N4">
-        <v>111.9217759</v>
-      </c>
-      <c r="O4">
-        <v>50.857142860000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>11</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1525,27 +1506,30 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>5.8181818180000002</v>
       </c>
       <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>5.8181818180000002</v>
+        <v>36.363636360000001</v>
       </c>
       <c r="N5">
-        <v>36.363636360000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1.234822026</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1557,42 +1541,39 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H6">
-        <v>-0.805754623</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>-0.73833648100000004</v>
+        <v>35.642371830000002</v>
       </c>
       <c r="J6">
-        <v>-0.68669746200000004</v>
+        <v>7.5833333329999997</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>100.8308668</v>
       </c>
       <c r="L6">
-        <v>6.268598044</v>
+        <v>22.333333329999999</v>
       </c>
       <c r="M6">
-        <v>13.23</v>
+        <v>-1.885769311</v>
       </c>
       <c r="N6">
-        <v>43.418076110000001</v>
-      </c>
-      <c r="O6">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.85613235799999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -1604,42 +1585,39 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H7">
-        <v>-1.8557696939999999</v>
+        <v>5</v>
       </c>
       <c r="I7">
-        <v>-1.5385318619999999</v>
+        <v>6.268598044</v>
       </c>
       <c r="J7">
-        <v>-1.748822418</v>
+        <v>13.23</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>43.418076110000001</v>
       </c>
       <c r="L7">
-        <v>35.642371830000002</v>
+        <v>28.4</v>
       </c>
       <c r="M7">
-        <v>7.5833333329999997</v>
+        <v>-0.922660284</v>
       </c>
       <c r="N7">
-        <v>100.8308668</v>
-      </c>
-      <c r="O7">
-        <v>22.333333329999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1.2136138759999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1651,42 +1629,39 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H8">
-        <v>-0.94777543200000003</v>
+        <v>4</v>
       </c>
       <c r="I8">
-        <v>-0.98437544899999996</v>
+        <v>86.575052850000006</v>
       </c>
       <c r="J8">
-        <v>-0.83385836499999999</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>4</v>
+        <v>287.46035940000002</v>
       </c>
       <c r="L8">
-        <v>86.575052850000006</v>
+        <v>48.75</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>-0.25986883900000002</v>
       </c>
       <c r="N8">
-        <v>287.46035940000002</v>
-      </c>
-      <c r="O8">
-        <v>48.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.94362394500000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1698,42 +1673,39 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9">
-        <v>1.1845162970000001</v>
+        <v>9</v>
       </c>
       <c r="I9">
-        <v>1.432538869</v>
+        <v>123.7862738</v>
       </c>
       <c r="J9">
-        <v>1.543292125</v>
+        <v>93.17777778</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>362.88160679999999</v>
       </c>
       <c r="L9">
-        <v>10344.82108</v>
+        <v>58.111111110000003</v>
       </c>
       <c r="M9">
-        <v>21.35</v>
+        <v>1.7195177349999999</v>
       </c>
       <c r="N9">
-        <v>831.68446089999998</v>
-      </c>
-      <c r="O9">
-        <v>39.799999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.815226805</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1745,1296 +1717,1218 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>-0.229629681</v>
+        <v>10</v>
       </c>
       <c r="I10">
-        <v>0.246580312</v>
+        <v>10344.82108</v>
       </c>
       <c r="J10">
-        <v>-0.19670795799999999</v>
+        <v>21.35</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>831.68446089999998</v>
       </c>
       <c r="L10">
-        <v>123.7862738</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="M10">
-        <v>93.17777778</v>
+        <v>-1.0158941130000001</v>
       </c>
       <c r="N10">
-        <v>362.88160679999999</v>
-      </c>
-      <c r="O10">
-        <v>58.111111110000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.5056903319999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C11">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>0.24988405499999999</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>0.24128476500000001</v>
+        <v>5.9719873149999998</v>
       </c>
       <c r="J11">
-        <v>0.22920955400000001</v>
+        <v>5.1457142859999996</v>
       </c>
       <c r="K11">
+        <v>38.213530660000004</v>
+      </c>
+      <c r="L11">
+        <v>25.428571430000002</v>
+      </c>
+      <c r="M11">
+        <v>-1.3052561890000001</v>
+      </c>
+      <c r="N11">
+        <v>-1.2990688050000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="L11">
-        <v>7.5895376319999999</v>
-      </c>
-      <c r="M11">
-        <v>9.5</v>
-      </c>
-      <c r="N11">
-        <v>109.11416490000001</v>
-      </c>
-      <c r="O11">
+      <c r="C12">
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>12</v>
+      </c>
+      <c r="I12">
+        <v>74.000438689999996</v>
+      </c>
+      <c r="J12">
+        <v>25.501666669999999</v>
+      </c>
+      <c r="K12">
+        <v>87.65486258</v>
+      </c>
+      <c r="L12">
+        <v>48.25</v>
+      </c>
+      <c r="M12">
+        <v>1.4782809649999999</v>
+      </c>
+      <c r="N12">
+        <v>-1.0297143559999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>76</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>82</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12">
-        <v>1.7530965999999999E-2</v>
-      </c>
-      <c r="I12">
-        <v>-0.81130289899999997</v>
-      </c>
-      <c r="J12">
-        <v>-0.26073639500000001</v>
-      </c>
-      <c r="K12">
+      <c r="G13" t="s">
         <v>6</v>
       </c>
-      <c r="L12">
-        <v>661.05740230000004</v>
-      </c>
-      <c r="M12">
-        <v>14.18333333</v>
-      </c>
-      <c r="N12">
-        <v>904.04386890000001</v>
-      </c>
-      <c r="O12">
-        <v>24.166666670000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>82</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" t="s">
-        <v>18</v>
-      </c>
       <c r="H13">
-        <v>0.96872003900000003</v>
+        <v>8</v>
       </c>
       <c r="I13">
-        <v>0.76470449299999999</v>
+        <v>639.61878960000001</v>
       </c>
       <c r="J13">
-        <v>0.90498432799999995</v>
+        <v>24.502500000000001</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>356.57928120000003</v>
       </c>
       <c r="L13">
-        <v>583.31554189999997</v>
+        <v>37.25</v>
       </c>
       <c r="M13">
-        <v>45.7</v>
+        <v>0.63191476300000005</v>
       </c>
       <c r="N13">
-        <v>413.80761100000001</v>
-      </c>
-      <c r="O13">
-        <v>39.200000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.87345769100000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14">
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H14">
-        <v>0.230122837</v>
+        <v>6</v>
       </c>
       <c r="I14">
-        <v>0.21169453999999999</v>
+        <v>5.8951836679999996</v>
       </c>
       <c r="J14">
-        <v>0.25469200800000003</v>
+        <v>13.69166667</v>
       </c>
       <c r="K14">
+        <v>39.128964060000001</v>
+      </c>
+      <c r="L14">
+        <v>32</v>
+      </c>
+      <c r="M14">
+        <v>-0.66006176999999999</v>
+      </c>
+      <c r="N14">
+        <v>-1.2272244539999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15">
         <v>2</v>
       </c>
-      <c r="L14">
-        <v>40.34173758</v>
-      </c>
-      <c r="M14">
-        <v>9.125</v>
-      </c>
-      <c r="N14">
-        <v>150.1437632</v>
-      </c>
-      <c r="O14">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C15">
         <v>22</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>27</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H15">
-        <v>0.14600803400000001</v>
+        <v>7</v>
       </c>
       <c r="I15">
-        <v>0.29941750700000003</v>
+        <v>67.669485989999998</v>
       </c>
       <c r="J15">
-        <v>0.34223734900000002</v>
+        <v>27.307142859999999</v>
       </c>
       <c r="K15">
-        <v>6</v>
+        <v>398.85412259999998</v>
       </c>
       <c r="L15">
-        <v>288.06176929999998</v>
+        <v>34.857142860000003</v>
       </c>
       <c r="M15">
-        <v>17.524999999999999</v>
+        <v>0.96500443199999997</v>
       </c>
       <c r="N15">
-        <v>213.60253700000001</v>
-      </c>
-      <c r="O15">
+        <v>0.13331119399999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
       <c r="B16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H16">
-        <v>-1.816360744</v>
+        <v>6</v>
       </c>
       <c r="I16">
-        <v>-1.4354425129999999</v>
+        <v>36.64280523</v>
       </c>
       <c r="J16">
-        <v>-1.579491419</v>
+        <v>13.69166667</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>21.68710359</v>
       </c>
       <c r="L16">
-        <v>40.34173758</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>15.58333333</v>
+        <v>-0.66006176999999999</v>
       </c>
       <c r="N16">
-        <v>150.1437632</v>
-      </c>
-      <c r="O16">
-        <v>17.333333329999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1.0505320149999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G17" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>5.1136363640000004</v>
+      </c>
+      <c r="J17">
+        <v>21.128571430000001</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>36.363636360000001</v>
       </c>
       <c r="L17">
-        <v>90.322425999999993</v>
+        <v>42.857142860000003</v>
+      </c>
+      <c r="M17">
+        <v>-0.82739379099999999</v>
       </c>
       <c r="N17">
-        <v>360.57082450000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1.3646239069999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G18" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H18">
-        <v>1.4386714169999999</v>
+        <v>11</v>
       </c>
       <c r="I18">
-        <v>1.319798182</v>
+        <v>111.1583668</v>
       </c>
       <c r="J18">
-        <v>1.5731700230000001</v>
+        <v>26.827272730000001</v>
       </c>
       <c r="K18">
-        <v>8</v>
+        <v>671.88160679999999</v>
       </c>
       <c r="L18">
-        <v>347.86623150000003</v>
+        <v>51.545454550000002</v>
       </c>
       <c r="M18">
-        <v>21.1875</v>
+        <v>-0.15272682100000001</v>
       </c>
       <c r="N18">
-        <v>632.84725160000005</v>
-      </c>
-      <c r="O18">
-        <v>52.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.31435011200000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G19" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H19">
-        <v>-0.52518548899999995</v>
+        <v>8</v>
       </c>
       <c r="I19">
-        <v>-1.91017177</v>
+        <v>10488.429529999999</v>
       </c>
       <c r="J19">
-        <v>-1.2485966470000001</v>
+        <v>20.0625</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>864.52167020000002</v>
       </c>
       <c r="L19">
-        <v>100.6583668</v>
+        <v>43.75</v>
       </c>
       <c r="M19">
-        <v>120.3714286</v>
+        <v>-0.79433060300000002</v>
       </c>
       <c r="N19">
-        <v>352.69556030000001</v>
-      </c>
-      <c r="O19">
-        <v>63.571428570000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.581014258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H20">
         <v>4</v>
       </c>
-      <c r="E20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20">
-        <v>0.24988405499999999</v>
-      </c>
       <c r="I20">
-        <v>0.24128476500000001</v>
+        <v>5.9719873149999998</v>
       </c>
       <c r="J20">
-        <v>0.21759068300000001</v>
+        <v>5.8925000000000001</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>38.213530660000004</v>
       </c>
       <c r="L20">
-        <v>6.3402065009999999</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>9.5</v>
+        <v>-1.2940701779999999</v>
       </c>
       <c r="N20">
-        <v>67.970401690000003</v>
-      </c>
-      <c r="O20">
+        <v>-1.2990688050000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>76</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <v>8</v>
+      </c>
+      <c r="I21">
+        <v>150.30165299999999</v>
+      </c>
+      <c r="J21">
+        <v>26.521249999999998</v>
+      </c>
+      <c r="K21">
+        <v>262.87315009999998</v>
+      </c>
+      <c r="L21">
+        <v>50.5</v>
+      </c>
+      <c r="M21">
+        <v>1.697220365</v>
+      </c>
+      <c r="N21">
+        <v>-0.44421956200000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>76</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>73</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s">
-        <v>101</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
-      </c>
-      <c r="H21">
-        <v>0.44510367899999997</v>
-      </c>
-      <c r="I21">
-        <v>-0.679652743</v>
-      </c>
-      <c r="J21">
-        <v>0.241682118</v>
-      </c>
-      <c r="K21">
-        <v>8</v>
-      </c>
-      <c r="L21">
-        <v>590.29119800000001</v>
-      </c>
-      <c r="M21">
-        <v>18.868749999999999</v>
-      </c>
-      <c r="N21">
-        <v>704.80338270000004</v>
-      </c>
-      <c r="O21">
-        <v>31.25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>73</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s">
-        <v>102</v>
-      </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H22">
-        <v>1.2598705180000001</v>
+        <v>6</v>
       </c>
       <c r="I22">
-        <v>-0.44008813499999999</v>
+        <v>710.17108350000001</v>
       </c>
       <c r="J22">
-        <v>1.094698011</v>
+        <v>5.028333333</v>
       </c>
       <c r="K22">
-        <v>11</v>
+        <v>836.30232560000002</v>
       </c>
       <c r="L22">
-        <v>6.9983227799999996</v>
+        <v>27.333333329999999</v>
       </c>
       <c r="M22">
-        <v>30.31818182</v>
+        <v>-1.1750211150000001</v>
       </c>
       <c r="N22">
-        <v>107.0866808</v>
-      </c>
-      <c r="O22">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.1665904610000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C23">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H23">
-        <v>-7.3755781000000006E-2</v>
+        <v>5</v>
       </c>
       <c r="I23">
-        <v>-0.18013359800000001</v>
+        <v>35.501627910000003</v>
       </c>
       <c r="J23">
-        <v>-8.9830808999999998E-2</v>
+        <v>13.23</v>
       </c>
       <c r="K23">
+        <v>95.917019030000006</v>
+      </c>
+      <c r="L23">
+        <v>28.4</v>
+      </c>
+      <c r="M23">
+        <v>-0.922660284</v>
+      </c>
+      <c r="N23">
+        <v>-0.86966101799999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24">
         <v>3</v>
       </c>
-      <c r="L23">
-        <v>35.642371830000002</v>
-      </c>
-      <c r="M23">
-        <v>19.8</v>
-      </c>
-      <c r="N23">
-        <v>100.8308668</v>
-      </c>
-      <c r="O23">
-        <v>38.333333330000002</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24">
-        <v>1</v>
-      </c>
       <c r="C24">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H24">
-        <v>-0.43708006100000002</v>
+        <v>8</v>
       </c>
       <c r="I24">
-        <v>0.73902501099999995</v>
+        <v>169.79421120000001</v>
       </c>
       <c r="J24">
-        <v>0.258402415</v>
+        <v>20.59375</v>
       </c>
       <c r="K24">
-        <v>11</v>
+        <v>842.6273784</v>
       </c>
       <c r="L24">
-        <v>99.219443709999993</v>
+        <v>47.75</v>
       </c>
       <c r="M24">
-        <v>21.22272727</v>
+        <v>1.0108448210000001</v>
       </c>
       <c r="N24">
-        <v>572.73361520000003</v>
-      </c>
-      <c r="O24">
-        <v>53.909090910000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.99811165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C25">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H25">
-        <v>0.62458559199999997</v>
+        <v>6</v>
       </c>
       <c r="I25">
-        <v>1.053525694</v>
+        <v>145.51486259999999</v>
       </c>
       <c r="J25">
-        <v>0.81024033100000004</v>
+        <v>17.69166667</v>
       </c>
       <c r="K25">
-        <v>7</v>
+        <v>791.39957719999995</v>
       </c>
       <c r="L25">
-        <v>69.20896802</v>
+        <v>27.833333329999999</v>
       </c>
       <c r="M25">
-        <v>24.542857139999999</v>
+        <v>-0.47916219100000002</v>
       </c>
       <c r="N25">
-        <v>111.28276959999999</v>
-      </c>
-      <c r="O25">
-        <v>65.142857140000004</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.693020814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D26">
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G26" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H26">
-        <v>-0.15164667400000001</v>
+        <v>5</v>
       </c>
       <c r="I26">
-        <v>-8.5748598999999995E-2</v>
+        <v>73.084397460000005</v>
       </c>
       <c r="J26">
-        <v>-8.4559681999999997E-2</v>
+        <v>20.38</v>
       </c>
       <c r="K26">
-        <v>5</v>
+        <v>297.0798097</v>
       </c>
       <c r="L26">
-        <v>69.512066599999997</v>
+        <v>46</v>
       </c>
       <c r="M26">
-        <v>22.48</v>
+        <v>-0.64504745500000005</v>
       </c>
       <c r="N26">
-        <v>312.73784360000002</v>
-      </c>
-      <c r="O26">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.93002777599999997</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D27">
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F27" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H27">
-        <v>-0.138622209</v>
+        <v>15</v>
       </c>
       <c r="I27">
-        <v>1.755970926</v>
+        <v>212.68585100000001</v>
       </c>
       <c r="J27">
-        <v>1.108830193</v>
+        <v>20.38</v>
       </c>
       <c r="K27">
+        <v>928.32293870000001</v>
+      </c>
+      <c r="L27">
+        <v>51</v>
+      </c>
+      <c r="M27">
+        <v>-0.32880020500000001</v>
+      </c>
+      <c r="N27">
+        <v>0.118405398</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
         <v>15</v>
-      </c>
-      <c r="L27">
-        <v>160.4825529</v>
-      </c>
-      <c r="M27">
-        <v>23.233333330000001</v>
-      </c>
-      <c r="N27">
-        <v>941.2193446</v>
-      </c>
-      <c r="O27">
-        <v>50.333333330000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>20</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F28" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G28" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H28">
-        <v>-2.220826599</v>
+        <v>11</v>
       </c>
       <c r="I28">
-        <v>-1.2957734169999999</v>
+        <v>10479.41812</v>
       </c>
       <c r="J28">
-        <v>-2.177472018</v>
+        <v>22.59090909</v>
       </c>
       <c r="K28">
-        <v>14</v>
+        <v>1349.9534880000001</v>
       </c>
       <c r="L28">
-        <v>141.40255289999999</v>
+        <v>43</v>
       </c>
       <c r="M28">
-        <v>75.757142860000002</v>
+        <v>-0.78624713099999999</v>
       </c>
       <c r="N28">
-        <v>517.30813950000004</v>
-      </c>
-      <c r="O28">
-        <v>62.857142860000003</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.36953032</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>82</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+      <c r="H29">
         <v>2</v>
       </c>
-      <c r="C29">
-        <v>76</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" t="s">
-        <v>8</v>
-      </c>
-      <c r="H29">
-        <v>-0.12848346099999999</v>
-      </c>
       <c r="I29">
-        <v>-1.799938993</v>
+        <v>7.5895376319999999</v>
       </c>
       <c r="J29">
-        <v>-0.75764224099999999</v>
+        <v>9.5</v>
       </c>
       <c r="K29">
-        <v>7</v>
+        <v>109.11416490000001</v>
       </c>
       <c r="L29">
-        <v>5.9719873149999998</v>
+        <v>25</v>
       </c>
       <c r="M29">
-        <v>5.1457142859999996</v>
+        <v>-1.0913095100000001</v>
       </c>
       <c r="N29">
-        <v>38.213530660000004</v>
-      </c>
-      <c r="O29">
-        <v>25.428571430000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1.1276819680000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="B30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C30">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G30" t="s">
         <v>8</v>
       </c>
       <c r="H30">
-        <v>0.57898740299999996</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>-0.74162675300000003</v>
+        <v>583.31554189999997</v>
       </c>
       <c r="J30">
-        <v>4.7081301999999998E-2</v>
+        <v>45.7</v>
       </c>
       <c r="K30">
-        <v>8</v>
+        <v>413.80761100000001</v>
       </c>
       <c r="L30">
-        <v>639.61878960000001</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M30">
-        <v>24.502500000000001</v>
+        <v>1.9634091709999999</v>
       </c>
       <c r="N30">
-        <v>356.57928120000003</v>
-      </c>
-      <c r="O30">
-        <v>37.25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.88276484899999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G31" t="s">
         <v>8</v>
       </c>
       <c r="H31">
-        <v>1.5029547409999999</v>
+        <v>6</v>
       </c>
       <c r="I31">
-        <v>-1.368128877</v>
+        <v>661.05740230000004</v>
       </c>
       <c r="J31">
-        <v>0.71049333199999998</v>
+        <v>14.18333333</v>
       </c>
       <c r="K31">
-        <v>12</v>
+        <v>904.04386890000001</v>
       </c>
       <c r="L31">
-        <v>74.000438689999996</v>
+        <v>24.166666670000001</v>
       </c>
       <c r="M31">
-        <v>25.501666669999999</v>
+        <v>-0.88794551399999999</v>
       </c>
       <c r="N31">
-        <v>87.65486258</v>
-      </c>
-      <c r="O31">
-        <v>48.25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.216876692</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D32">
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G32" t="s">
         <v>8</v>
       </c>
       <c r="H32">
-        <v>-1.6961595270000001</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>-1.4809355230000001</v>
+        <v>40.34173758</v>
       </c>
       <c r="J32">
-        <v>-1.540425213</v>
+        <v>9.125</v>
       </c>
       <c r="K32">
-        <v>6</v>
+        <v>150.1437632</v>
       </c>
       <c r="L32">
-        <v>5.8951836679999996</v>
+        <v>26</v>
       </c>
       <c r="M32">
-        <v>13.69166667</v>
+        <v>-1.5037432120000001</v>
       </c>
       <c r="N32">
-        <v>39.128964060000001</v>
-      </c>
-      <c r="O32">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.69672774100000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G33" t="s">
         <v>8</v>
       </c>
       <c r="H33">
-        <v>-1.6961595270000001</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>-1.4809355230000001</v>
+        <v>40.34173758</v>
       </c>
       <c r="J33">
-        <v>-1.440188019</v>
+        <v>15.58333333</v>
       </c>
       <c r="K33">
-        <v>6</v>
+        <v>150.1437632</v>
       </c>
       <c r="L33">
-        <v>36.64280523</v>
+        <v>17.333333329999999</v>
       </c>
       <c r="M33">
-        <v>13.69166667</v>
+        <v>-1.3265304360000001</v>
       </c>
       <c r="N33">
-        <v>21.68710359</v>
-      </c>
-      <c r="O33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.69672774100000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F34" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G34" t="s">
         <v>8</v>
       </c>
       <c r="H34">
-        <v>-0.73249717599999997</v>
+        <v>6</v>
       </c>
       <c r="I34">
-        <v>-0.88428250600000002</v>
+        <v>288.06176929999998</v>
       </c>
       <c r="J34">
-        <v>-0.54489319300000005</v>
+        <v>17.524999999999999</v>
       </c>
       <c r="K34">
-        <v>7</v>
+        <v>213.60253700000001</v>
       </c>
       <c r="L34">
-        <v>67.669485989999998</v>
+        <v>42</v>
       </c>
       <c r="M34">
-        <v>27.307142859999999</v>
+        <v>0.34213580799999999</v>
       </c>
       <c r="N34">
-        <v>398.85412259999998</v>
-      </c>
-      <c r="O34">
-        <v>34.857142860000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.2463816299999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G35" t="s">
         <v>8</v>
       </c>
       <c r="H35">
-        <v>-0.53956091699999997</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>-0.59413878899999994</v>
-      </c>
-      <c r="J35">
-        <v>-0.27807237099999998</v>
+        <v>90.322425999999993</v>
       </c>
       <c r="K35">
-        <v>7</v>
-      </c>
-      <c r="L35">
-        <v>5.1136363640000004</v>
-      </c>
-      <c r="M35">
-        <v>21.128571430000001</v>
+        <v>360.57082450000001</v>
       </c>
       <c r="N35">
-        <v>36.363636360000001</v>
-      </c>
-      <c r="O35">
-        <v>42.857142860000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.824088088</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="B36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F36" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G36" t="s">
         <v>8</v>
       </c>
       <c r="H36">
-        <v>2.327115</v>
+        <v>7</v>
       </c>
       <c r="I36">
-        <v>1.562231226</v>
+        <v>100.6583668</v>
       </c>
       <c r="J36">
-        <v>2.1986900399999998</v>
+        <v>120.3714286</v>
       </c>
       <c r="K36">
-        <v>8</v>
+        <v>352.69556030000001</v>
       </c>
       <c r="L36">
-        <v>10488.429529999999</v>
+        <v>63.571428570000002</v>
       </c>
       <c r="M36">
-        <v>20.0625</v>
+        <v>2.6620168479999999</v>
       </c>
       <c r="N36">
-        <v>864.52167020000002</v>
-      </c>
-      <c r="O36">
-        <v>43.75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.83532703600000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F37" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G37" t="s">
         <v>8</v>
       </c>
       <c r="H37">
-        <v>0.92128265200000004</v>
+        <v>8</v>
       </c>
       <c r="I37">
-        <v>0.84947629800000002</v>
+        <v>347.86623150000003</v>
       </c>
       <c r="J37">
-        <v>0.80842705400000003</v>
+        <v>21.1875</v>
       </c>
       <c r="K37">
-        <v>11</v>
+        <v>632.84725160000005</v>
       </c>
       <c r="L37">
-        <v>111.1583668</v>
+        <v>52.5</v>
       </c>
       <c r="M37">
-        <v>26.827272730000001</v>
+        <v>-0.21619438499999999</v>
       </c>
       <c r="N37">
-        <v>671.88160679999999</v>
-      </c>
-      <c r="O37">
-        <v>51.545454550000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.34178287499999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -3046,42 +2940,39 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G38" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H38">
-        <v>-0.29541028800000002</v>
+        <v>5</v>
       </c>
       <c r="I38">
-        <v>-0.53846747500000003</v>
+        <v>7.0004386890000001</v>
       </c>
       <c r="J38">
-        <v>-0.35292632099999999</v>
+        <v>6.02</v>
       </c>
       <c r="K38">
-        <v>5</v>
+        <v>84.018498940000001</v>
       </c>
       <c r="L38">
-        <v>7.0004386890000001</v>
+        <v>25.8</v>
       </c>
       <c r="M38">
-        <v>6.02</v>
+        <v>-1.229434347</v>
       </c>
       <c r="N38">
-        <v>84.018498940000001</v>
-      </c>
-      <c r="O38">
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1.1883823600000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -3093,42 +2984,39 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G39" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H39">
-        <v>-0.29541028800000002</v>
+        <v>8</v>
       </c>
       <c r="I39">
-        <v>-0.53846747500000003</v>
+        <v>7.0004386890000001</v>
       </c>
       <c r="J39">
-        <v>-0.32336949999999998</v>
+        <v>41.512500000000003</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>84.018498940000001</v>
       </c>
       <c r="L39">
-        <v>723.09325049999995</v>
+        <v>45.75</v>
       </c>
       <c r="M39">
-        <v>6.02</v>
+        <v>2.198582204</v>
       </c>
       <c r="N39">
-        <v>574.03594080000005</v>
-      </c>
-      <c r="O39">
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1.1883823600000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -3140,42 +3028,39 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G40" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H40">
-        <v>1.032783945</v>
+        <v>5</v>
       </c>
       <c r="I40">
-        <v>0.20480478499999999</v>
+        <v>723.09325049999995</v>
       </c>
       <c r="J40">
-        <v>0.80602594000000005</v>
+        <v>6.02</v>
       </c>
       <c r="K40">
-        <v>8</v>
+        <v>574.03594080000005</v>
       </c>
       <c r="L40">
-        <v>7.0004386890000001</v>
+        <v>25.8</v>
       </c>
       <c r="M40">
-        <v>41.512500000000003</v>
+        <v>-1.229434347</v>
       </c>
       <c r="N40">
-        <v>84.018498940000001</v>
-      </c>
-      <c r="O40">
-        <v>45.75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.5749625549999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -3187,42 +3072,39 @@
         <v>2</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G41" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H41">
-        <v>-0.90672101599999999</v>
+        <v>5</v>
       </c>
       <c r="I41">
-        <v>-0.78292255499999996</v>
+        <v>12.643428910000001</v>
       </c>
       <c r="J41">
-        <v>-0.65889526700000001</v>
+        <v>9.23</v>
       </c>
       <c r="K41">
-        <v>5</v>
+        <v>128.1115222</v>
       </c>
       <c r="L41">
-        <v>12.643428910000001</v>
+        <v>31.4</v>
       </c>
       <c r="M41">
-        <v>9.23</v>
+        <v>-1.1726637639999999</v>
       </c>
       <c r="N41">
-        <v>128.1115222</v>
-      </c>
-      <c r="O41">
-        <v>31.4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.95203923099999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -3234,42 +3116,39 @@
         <v>2</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F42" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G42" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H42">
-        <v>-0.90672101599999999</v>
+        <v>7</v>
       </c>
       <c r="I42">
-        <v>-0.78292255499999996</v>
+        <v>12.643428910000001</v>
       </c>
       <c r="J42">
-        <v>-0.72836435600000005</v>
+        <v>20.878571430000001</v>
       </c>
       <c r="K42">
-        <v>5</v>
+        <v>128.1115222</v>
       </c>
       <c r="L42">
-        <v>123.4098137</v>
+        <v>39</v>
       </c>
       <c r="M42">
-        <v>9.23</v>
+        <v>0.52302003900000005</v>
       </c>
       <c r="N42">
-        <v>308.86416489999999</v>
-      </c>
-      <c r="O42">
-        <v>31.4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.95203923099999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -3281,42 +3160,39 @@
         <v>2</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H43">
-        <v>-0.170086443</v>
+        <v>5</v>
       </c>
       <c r="I43">
-        <v>-0.44958852799999999</v>
+        <v>123.4098137</v>
       </c>
       <c r="J43">
-        <v>-3.5511464999999999E-2</v>
+        <v>9.23</v>
       </c>
       <c r="K43">
-        <v>7</v>
+        <v>308.86416489999999</v>
       </c>
       <c r="L43">
-        <v>12.643428910000001</v>
+        <v>31.4</v>
       </c>
       <c r="M43">
-        <v>20.878571430000001</v>
+        <v>-1.1726637639999999</v>
       </c>
       <c r="N43">
-        <v>128.1115222</v>
-      </c>
-      <c r="O43">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.30494377700000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -3328,42 +3204,39 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F44" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G44" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H44">
-        <v>0.98125627599999998</v>
+        <v>4</v>
       </c>
       <c r="I44">
-        <v>0.380488724</v>
+        <v>11.95773256</v>
       </c>
       <c r="J44">
-        <v>0.85133749800000003</v>
+        <v>10.725</v>
       </c>
       <c r="K44">
-        <v>4</v>
+        <v>126.6781184</v>
       </c>
       <c r="L44">
-        <v>11.95773256</v>
+        <v>36.25</v>
       </c>
       <c r="M44">
-        <v>10.725</v>
+        <v>-1.4737407769999999</v>
       </c>
       <c r="N44">
-        <v>126.6781184</v>
-      </c>
-      <c r="O44">
-        <v>36.25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1.2166217850000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="B45">
         <v>2</v>
@@ -3375,42 +3248,39 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F45" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H45">
-        <v>1.4845675840000001</v>
+        <v>12</v>
       </c>
       <c r="I45">
-        <v>0.95763767600000005</v>
+        <v>31.778874210000001</v>
       </c>
       <c r="J45">
-        <v>1.3949546669999999</v>
+        <v>76.424999999999997</v>
       </c>
       <c r="K45">
-        <v>6</v>
+        <v>308.56236790000003</v>
       </c>
       <c r="L45">
-        <v>10454.468559999999</v>
+        <v>59.75</v>
       </c>
       <c r="M45">
-        <v>13.41666667</v>
+        <v>1.455307447</v>
       </c>
       <c r="N45">
-        <v>1142.678118</v>
-      </c>
-      <c r="O45">
-        <v>46.666666669999998</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.91764005299999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -3422,1311 +3292,1227 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F46" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G46" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H46">
-        <v>-0.30224954599999998</v>
+        <v>6</v>
       </c>
       <c r="I46">
-        <v>-1.0555339050000001</v>
+        <v>10454.468559999999</v>
       </c>
       <c r="J46">
-        <v>-0.74574061800000002</v>
+        <v>13.41666667</v>
       </c>
       <c r="K46">
-        <v>12</v>
+        <v>1142.678118</v>
       </c>
       <c r="L46">
-        <v>31.778874210000001</v>
+        <v>46.666666669999998</v>
       </c>
       <c r="M46">
-        <v>76.424999999999997</v>
+        <v>-0.75578685599999995</v>
       </c>
       <c r="N46">
-        <v>308.56236790000003</v>
-      </c>
-      <c r="O46">
-        <v>59.75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.0284506410000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="B47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C47">
+        <v>82</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>23</v>
+      </c>
+      <c r="G47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+      <c r="I47">
+        <v>2.476653013</v>
+      </c>
+      <c r="J47">
+        <v>6.0250000000000004</v>
+      </c>
+      <c r="K47">
+        <v>143.5010571</v>
+      </c>
+      <c r="L47">
+        <v>23.5</v>
+      </c>
+      <c r="M47">
+        <v>-1.394378573</v>
+      </c>
+      <c r="N47">
+        <v>-1.0577678859999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>82</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>8</v>
+      </c>
+      <c r="H48">
+        <v>9</v>
+      </c>
+      <c r="I48">
+        <v>582.85804840000003</v>
+      </c>
+      <c r="J48">
+        <v>33.961111109999997</v>
+      </c>
+      <c r="K48">
+        <v>473.64904860000001</v>
+      </c>
+      <c r="L48">
+        <v>41.333333330000002</v>
+      </c>
+      <c r="M48">
+        <v>1.4568736499999999</v>
+      </c>
+      <c r="N48">
+        <v>1.023336002</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49">
+        <v>3</v>
+      </c>
+      <c r="C49">
+        <v>82</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" t="s">
+        <v>8</v>
+      </c>
+      <c r="H49">
+        <v>5</v>
+      </c>
+      <c r="I49">
+        <v>662.44063949999997</v>
+      </c>
+      <c r="J49">
+        <v>6.02</v>
+      </c>
+      <c r="K49">
+        <v>712.60200850000001</v>
+      </c>
+      <c r="L49">
+        <v>25.8</v>
+      </c>
+      <c r="M49">
+        <v>-1.229434347</v>
+      </c>
+      <c r="N49">
+        <v>1.7669882180000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <v>3</v>
+      </c>
+      <c r="C50">
+        <v>27</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" t="s">
+        <v>23</v>
+      </c>
+      <c r="G50" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>7.335183668</v>
+      </c>
+      <c r="J50">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K50">
+        <v>96.695031709999995</v>
+      </c>
+      <c r="L50">
+        <v>31.666666670000001</v>
+      </c>
+      <c r="M50">
+        <v>-1.14938385</v>
+      </c>
+      <c r="N50">
+        <v>-1.070237026</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>73</v>
       </c>
-      <c r="D47">
-        <v>2</v>
-      </c>
-      <c r="E47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F47" t="s">
-        <v>99</v>
-      </c>
-      <c r="G47" t="s">
-        <v>28</v>
-      </c>
-      <c r="H47">
-        <v>0.45108147199999998</v>
-      </c>
-      <c r="I47">
-        <v>0.29181423000000001</v>
-      </c>
-      <c r="J47">
-        <v>0.39912217799999999</v>
-      </c>
-      <c r="K47">
+      <c r="B51">
+        <v>3</v>
+      </c>
+      <c r="C51">
+        <v>27</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>8</v>
+      </c>
+      <c r="H51">
+        <v>7</v>
+      </c>
+      <c r="I51">
+        <v>40.104940540000001</v>
+      </c>
+      <c r="J51">
+        <v>24.678571430000002</v>
+      </c>
+      <c r="K51">
+        <v>559.04175480000004</v>
+      </c>
+      <c r="L51">
+        <v>55.428571429999998</v>
+      </c>
+      <c r="M51">
+        <v>1.902430055</v>
+      </c>
+      <c r="N51">
+        <v>0.34311035899999998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>27</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" t="s">
+        <v>25</v>
+      </c>
+      <c r="G52" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52">
         <v>6</v>
       </c>
-      <c r="L47">
-        <v>6.3351109939999999</v>
-      </c>
-      <c r="M47">
-        <v>4.0750000000000002</v>
-      </c>
-      <c r="N47">
-        <v>59.655391119999997</v>
-      </c>
-      <c r="O47">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B48">
-        <v>2</v>
-      </c>
-      <c r="C48">
-        <v>73</v>
-      </c>
-      <c r="D48">
-        <v>2</v>
-      </c>
-      <c r="E48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" t="s">
-        <v>101</v>
-      </c>
-      <c r="G48" t="s">
-        <v>28</v>
-      </c>
-      <c r="H48">
-        <v>-0.35923209499999997</v>
-      </c>
-      <c r="I48">
-        <v>0.22557958</v>
-      </c>
-      <c r="J48">
-        <v>-5.9466219000000001E-2</v>
-      </c>
-      <c r="K48">
-        <v>8</v>
-      </c>
-      <c r="L48">
-        <v>707.52760439999997</v>
-      </c>
-      <c r="M48">
-        <v>25.056249999999999</v>
-      </c>
-      <c r="N48">
-        <v>559.04439749999995</v>
-      </c>
-      <c r="O48">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49">
-        <v>73</v>
-      </c>
-      <c r="D49">
-        <v>2</v>
-      </c>
-      <c r="E49" t="s">
-        <v>18</v>
-      </c>
-      <c r="F49" t="s">
-        <v>102</v>
-      </c>
-      <c r="G49" t="s">
-        <v>28</v>
-      </c>
-      <c r="H49">
-        <v>0.72492056199999999</v>
-      </c>
-      <c r="I49">
-        <v>-2.383398481</v>
-      </c>
-      <c r="J49">
-        <v>-3.1318898999999997E-2</v>
-      </c>
-      <c r="K49">
-        <v>12</v>
-      </c>
-      <c r="L49">
-        <v>7.0004386890000001</v>
-      </c>
-      <c r="M49">
-        <v>27.041666670000001</v>
-      </c>
-      <c r="N49">
-        <v>84.018498940000001</v>
-      </c>
-      <c r="O49">
-        <v>39.75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50">
-        <v>2</v>
-      </c>
-      <c r="C50">
-        <v>38</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>99</v>
-      </c>
-      <c r="G50" t="s">
-        <v>28</v>
-      </c>
-      <c r="H50">
-        <v>-1.0133296620000001</v>
-      </c>
-      <c r="I50">
-        <v>-0.94593536199999995</v>
-      </c>
-      <c r="J50">
-        <v>-0.86253508999999995</v>
-      </c>
-      <c r="K50">
-        <v>4</v>
-      </c>
-      <c r="L50">
-        <v>7.2864852009999996</v>
-      </c>
-      <c r="M50">
-        <v>7.5374999999999996</v>
-      </c>
-      <c r="N50">
-        <v>74.881078220000006</v>
-      </c>
-      <c r="O50">
-        <v>29.25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>38</v>
-      </c>
-      <c r="D51">
-        <v>1</v>
-      </c>
-      <c r="E51" t="s">
-        <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>101</v>
-      </c>
-      <c r="G51" t="s">
-        <v>28</v>
-      </c>
-      <c r="H51">
-        <v>-2.4171482000000001E-2</v>
-      </c>
-      <c r="I51">
-        <v>-0.237394889</v>
-      </c>
-      <c r="J51">
-        <v>-0.237201774</v>
-      </c>
-      <c r="K51">
-        <v>8</v>
-      </c>
-      <c r="L51">
-        <v>145.4202894</v>
-      </c>
-      <c r="M51">
-        <v>11.55625</v>
-      </c>
-      <c r="N51">
-        <v>676.24524310000004</v>
-      </c>
-      <c r="O51">
-        <v>47.125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>60</v>
-      </c>
-      <c r="B52">
-        <v>2</v>
-      </c>
-      <c r="C52">
-        <v>38</v>
-      </c>
-      <c r="D52">
-        <v>1</v>
-      </c>
-      <c r="E52" t="s">
-        <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
-      </c>
-      <c r="G52" t="s">
-        <v>28</v>
-      </c>
-      <c r="H52">
-        <v>-0.591743978</v>
-      </c>
       <c r="I52">
-        <v>-0.35771899600000001</v>
+        <v>288.04049020000002</v>
       </c>
       <c r="J52">
-        <v>-0.435863848</v>
+        <v>17.524999999999999</v>
       </c>
       <c r="K52">
-        <v>7</v>
+        <v>314.06765330000002</v>
       </c>
       <c r="L52">
-        <v>67.669485989999998</v>
+        <v>42</v>
       </c>
       <c r="M52">
-        <v>26.43571429</v>
+        <v>0.34213580799999999</v>
       </c>
       <c r="N52">
-        <v>398.85412259999998</v>
-      </c>
-      <c r="O52">
-        <v>40.571428570000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.502132376</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="B53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C53">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G53" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H53">
-        <v>0.98125627599999998</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>0.380488724</v>
+        <v>11.95773256</v>
       </c>
       <c r="J53">
-        <v>0.83943356400000002</v>
+        <v>8.9666666670000001</v>
       </c>
       <c r="K53">
-        <v>4</v>
+        <v>126.6781184</v>
       </c>
       <c r="L53">
-        <v>6.5945190269999996</v>
+        <v>31.666666670000001</v>
       </c>
       <c r="M53">
-        <v>10.725</v>
+        <v>-1.802244792</v>
       </c>
       <c r="N53">
-        <v>74.881078220000006</v>
-      </c>
-      <c r="O53">
-        <v>36.25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1.2166217850000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="B54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C54">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D54">
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F54" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G54" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H54">
-        <v>1.333134737</v>
+        <v>11</v>
       </c>
       <c r="I54">
-        <v>1.2726689069999999</v>
+        <v>156.75875260000001</v>
       </c>
       <c r="J54">
-        <v>1.4554218430000001</v>
+        <v>88.836363640000002</v>
       </c>
       <c r="K54">
-        <v>9</v>
+        <v>835.41226219999999</v>
       </c>
       <c r="L54">
-        <v>10435.15573</v>
+        <v>72.727272729999996</v>
       </c>
       <c r="M54">
-        <v>22.288888889999999</v>
+        <v>2.5486501370000001</v>
       </c>
       <c r="N54">
-        <v>1396.617336</v>
-      </c>
-      <c r="O54">
-        <v>62.222222219999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-4.1303395999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="B55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C55">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D55">
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F55" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G55" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H55">
-        <v>1.2424688500000001</v>
+        <v>6</v>
       </c>
       <c r="I55">
-        <v>-0.27457373800000001</v>
+        <v>10630.75253</v>
       </c>
       <c r="J55">
-        <v>0.55485194900000001</v>
+        <v>18.25</v>
       </c>
       <c r="K55">
-        <v>14</v>
+        <v>1226.2087739999999</v>
       </c>
       <c r="L55">
-        <v>67.680565540000003</v>
+        <v>50.833333330000002</v>
       </c>
       <c r="M55">
-        <v>82.764285709999996</v>
+        <v>-0.38611379699999998</v>
       </c>
       <c r="N55">
-        <v>478.1580338</v>
-      </c>
-      <c r="O55">
-        <v>61.214285709999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.1912434589999998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>73</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" t="s">
+        <v>23</v>
+      </c>
+      <c r="G56" t="s">
+        <v>10</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>6.3402065009999999</v>
+      </c>
+      <c r="J56">
+        <v>9.5</v>
+      </c>
+      <c r="K56">
+        <v>67.970401690000003</v>
+      </c>
+      <c r="L56">
+        <v>25</v>
+      </c>
+      <c r="M56">
+        <v>-1.0913095100000001</v>
+      </c>
+      <c r="N56">
+        <v>-1.2278338639999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>73</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>10</v>
+      </c>
+      <c r="H57">
+        <v>11</v>
+      </c>
+      <c r="I57">
+        <v>6.9983227799999996</v>
+      </c>
+      <c r="J57">
+        <v>30.31818182</v>
+      </c>
+      <c r="K57">
+        <v>107.0866808</v>
+      </c>
+      <c r="L57">
+        <v>46</v>
+      </c>
+      <c r="M57">
+        <v>1.5873613099999999</v>
+      </c>
+      <c r="N57">
+        <v>-1.1338035449999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>73</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>590.29119800000001</v>
+      </c>
+      <c r="J58">
+        <v>18.868749999999999</v>
+      </c>
+      <c r="K58">
+        <v>704.80338270000004</v>
+      </c>
+      <c r="L58">
+        <v>31.25</v>
+      </c>
+      <c r="M58">
+        <v>-0.11575431799999999</v>
+      </c>
+      <c r="N58">
+        <v>1.5869380420000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>38</v>
+      </c>
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" t="s">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>10</v>
+      </c>
+      <c r="H59">
         <v>3</v>
       </c>
-      <c r="C56">
-        <v>76</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" t="s">
-        <v>99</v>
-      </c>
-      <c r="G56" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56">
-        <v>0.77673556700000002</v>
-      </c>
-      <c r="I56">
-        <v>0.27731782700000002</v>
-      </c>
-      <c r="J56">
-        <v>0.61650519599999998</v>
-      </c>
-      <c r="K56">
-        <v>4</v>
-      </c>
-      <c r="L56">
-        <v>5.9719873149999998</v>
-      </c>
-      <c r="M56">
-        <v>5.8925000000000001</v>
-      </c>
-      <c r="N56">
-        <v>38.213530660000004</v>
-      </c>
-      <c r="O56">
+      <c r="I59">
+        <v>35.642371830000002</v>
+      </c>
+      <c r="J59">
+        <v>19.8</v>
+      </c>
+      <c r="K59">
+        <v>100.8308668</v>
+      </c>
+      <c r="L59">
+        <v>38.333333330000002</v>
+      </c>
+      <c r="M59">
+        <v>0.36820605299999998</v>
+      </c>
+      <c r="N59">
+        <v>-0.85613235799999998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>38</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" t="s">
+        <v>10</v>
+      </c>
+      <c r="H60">
+        <v>7</v>
+      </c>
+      <c r="I60">
+        <v>69.20896802</v>
+      </c>
+      <c r="J60">
+        <v>24.542857139999999</v>
+      </c>
+      <c r="K60">
+        <v>111.28276959999999</v>
+      </c>
+      <c r="L60">
+        <v>65.142857140000004</v>
+      </c>
+      <c r="M60">
+        <v>2.4633145789999999</v>
+      </c>
+      <c r="N60">
+        <v>-0.58811666100000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>82</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>38</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-      <c r="C57">
-        <v>76</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" t="s">
-        <v>101</v>
-      </c>
-      <c r="G57" t="s">
-        <v>8</v>
-      </c>
-      <c r="H57">
-        <v>-0.41619368899999998</v>
-      </c>
-      <c r="I57">
-        <v>-1.8234341780000001</v>
-      </c>
-      <c r="J57">
-        <v>-0.92831457900000003</v>
-      </c>
-      <c r="K57">
-        <v>6</v>
-      </c>
-      <c r="L57">
-        <v>710.17108350000001</v>
-      </c>
-      <c r="M57">
-        <v>5.028333333</v>
-      </c>
-      <c r="N57">
-        <v>836.30232560000002</v>
-      </c>
-      <c r="O57">
-        <v>27.333333329999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>66</v>
-      </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-      <c r="C58">
-        <v>76</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" t="s">
-        <v>102</v>
-      </c>
-      <c r="G58" t="s">
-        <v>8</v>
-      </c>
-      <c r="H58">
-        <v>0.71078180599999996</v>
-      </c>
-      <c r="I58">
-        <v>-0.86861349899999996</v>
-      </c>
-      <c r="J58">
-        <v>0.162696972</v>
-      </c>
-      <c r="K58">
-        <v>8</v>
-      </c>
-      <c r="L58">
-        <v>150.30165299999999</v>
-      </c>
-      <c r="M58">
-        <v>26.521249999999998</v>
-      </c>
-      <c r="N58">
-        <v>262.87315009999998</v>
-      </c>
-      <c r="O58">
-        <v>50.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-      <c r="C59">
-        <v>22</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="E59" t="s">
-        <v>99</v>
-      </c>
-      <c r="F59" t="s">
-        <v>99</v>
-      </c>
-      <c r="G59" t="s">
-        <v>8</v>
-      </c>
-      <c r="H59">
-        <v>-0.805754623</v>
-      </c>
-      <c r="I59">
-        <v>-0.73833648100000004</v>
-      </c>
-      <c r="J59">
-        <v>-0.63849198900000004</v>
-      </c>
-      <c r="K59">
-        <v>5</v>
-      </c>
-      <c r="L59">
-        <v>35.501627910000003</v>
-      </c>
-      <c r="M59">
-        <v>13.23</v>
-      </c>
-      <c r="N59">
-        <v>95.917019030000006</v>
-      </c>
-      <c r="O59">
-        <v>28.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>68</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60">
-        <v>22</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>99</v>
-      </c>
-      <c r="F60" t="s">
-        <v>101</v>
-      </c>
-      <c r="G60" t="s">
-        <v>8</v>
-      </c>
-      <c r="H60">
-        <v>-0.29392056100000002</v>
-      </c>
-      <c r="I60">
-        <v>-0.55889926599999995</v>
-      </c>
-      <c r="J60">
-        <v>-0.328749984</v>
-      </c>
-      <c r="K60">
-        <v>6</v>
-      </c>
-      <c r="L60">
-        <v>145.51486259999999</v>
-      </c>
-      <c r="M60">
-        <v>17.69166667</v>
-      </c>
-      <c r="N60">
-        <v>791.39957719999995</v>
-      </c>
-      <c r="O60">
-        <v>27.833333329999999</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>69</v>
-      </c>
-      <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61">
-        <v>22</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
-      </c>
-      <c r="E61" t="s">
-        <v>99</v>
-      </c>
-      <c r="F61" t="s">
-        <v>102</v>
-      </c>
       <c r="G61" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H61">
-        <v>-0.54840383500000001</v>
+        <v>11</v>
       </c>
       <c r="I61">
-        <v>1.6986880999999999E-2</v>
+        <v>99.219443709999993</v>
       </c>
       <c r="J61">
-        <v>-0.27776769699999998</v>
+        <v>21.22272727</v>
       </c>
       <c r="K61">
-        <v>8</v>
+        <v>572.73361520000003</v>
       </c>
       <c r="L61">
-        <v>169.79421120000001</v>
+        <v>53.909090910000003</v>
       </c>
       <c r="M61">
-        <v>20.59375</v>
+        <v>1.4429128449999999</v>
       </c>
       <c r="N61">
-        <v>842.6273784</v>
-      </c>
-      <c r="O61">
-        <v>47.75</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.80310550300000005</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="B62">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F62" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G62" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H62">
-        <v>-1.8579551919999999</v>
+        <v>5</v>
       </c>
       <c r="I62">
-        <v>-1.631449801</v>
+        <v>69.512066599999997</v>
       </c>
       <c r="J62">
-        <v>-1.6577555150000001</v>
+        <v>22.48</v>
       </c>
       <c r="K62">
-        <v>5</v>
+        <v>312.73784360000002</v>
       </c>
       <c r="L62">
-        <v>73.084397460000005</v>
+        <v>43</v>
       </c>
       <c r="M62">
-        <v>20.38</v>
+        <v>-0.78868254999999998</v>
       </c>
       <c r="N62">
-        <v>297.0798097</v>
-      </c>
-      <c r="O62">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.90509374499999995</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G63" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H63">
-        <v>0.50356911900000001</v>
+        <v>14</v>
       </c>
       <c r="I63">
-        <v>0.74245053100000002</v>
+        <v>141.40255289999999</v>
       </c>
       <c r="J63">
-        <v>1.018706251</v>
+        <v>75.757142860000002</v>
       </c>
       <c r="K63">
-        <v>11</v>
+        <v>517.30813950000004</v>
       </c>
       <c r="L63">
-        <v>10479.41812</v>
+        <v>62.857142860000003</v>
       </c>
       <c r="M63">
-        <v>22.59090909</v>
+        <v>1.637167254</v>
       </c>
       <c r="N63">
-        <v>1349.9534880000001</v>
-      </c>
-      <c r="O63">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.56126010000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F64" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G64" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H64">
-        <v>-0.54472366900000002</v>
+        <v>15</v>
       </c>
       <c r="I64">
-        <v>0.83826274599999995</v>
+        <v>160.4825529</v>
       </c>
       <c r="J64">
-        <v>-1.8472116E-2</v>
+        <v>23.233333330000001</v>
       </c>
       <c r="K64">
-        <v>15</v>
+        <v>941.2193446</v>
       </c>
       <c r="L64">
-        <v>212.68585100000001</v>
+        <v>50.333333330000002</v>
       </c>
       <c r="M64">
-        <v>20.38</v>
+        <v>-0.30831103399999998</v>
       </c>
       <c r="N64">
-        <v>928.32293870000001</v>
-      </c>
-      <c r="O64">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.13143247299999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
+        <v>86</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
         <v>73</v>
       </c>
-      <c r="B65">
-        <v>3</v>
-      </c>
-      <c r="C65">
-        <v>82</v>
-      </c>
       <c r="D65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F65" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H65">
-        <v>0.72392900900000001</v>
+        <v>6</v>
       </c>
       <c r="I65">
-        <v>0.30514406399999999</v>
+        <v>6.3351109939999999</v>
       </c>
       <c r="J65">
-        <v>0.67135303999999996</v>
+        <v>4.0750000000000002</v>
       </c>
       <c r="K65">
+        <v>59.655391119999997</v>
+      </c>
+      <c r="L65">
+        <v>28</v>
+      </c>
+      <c r="M65">
+        <v>-1.1807121359999999</v>
+      </c>
+      <c r="N65">
+        <v>-1.247520118</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>87</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>73</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s">
+        <v>10</v>
+      </c>
+      <c r="H66">
+        <v>12</v>
+      </c>
+      <c r="I66">
+        <v>7.0004386890000001</v>
+      </c>
+      <c r="J66">
+        <v>27.041666670000001</v>
+      </c>
+      <c r="K66">
+        <v>84.018498940000001</v>
+      </c>
+      <c r="L66">
+        <v>39.75</v>
+      </c>
+      <c r="M66">
+        <v>0.95422208600000002</v>
+      </c>
+      <c r="N66">
+        <v>-1.1883823600000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>73</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>10</v>
+      </c>
+      <c r="H67">
+        <v>8</v>
+      </c>
+      <c r="I67">
+        <v>707.52760439999997</v>
+      </c>
+      <c r="J67">
+        <v>25.056249999999999</v>
+      </c>
+      <c r="K67">
+        <v>559.04439749999995</v>
+      </c>
+      <c r="L67">
+        <v>41</v>
+      </c>
+      <c r="M67">
+        <v>0.93242745299999996</v>
+      </c>
+      <c r="N67">
+        <v>1.5046265510000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>38</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>10</v>
+      </c>
+      <c r="H68">
         <v>4</v>
       </c>
-      <c r="L65">
-        <v>2.476653013</v>
-      </c>
-      <c r="M65">
-        <v>6.0250000000000004</v>
-      </c>
-      <c r="N65">
-        <v>143.5010571</v>
-      </c>
-      <c r="O65">
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>74</v>
-      </c>
-      <c r="B66">
-        <v>3</v>
-      </c>
-      <c r="C66">
-        <v>82</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>18</v>
-      </c>
-      <c r="F66" t="s">
-        <v>101</v>
-      </c>
-      <c r="G66" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66">
-        <v>-0.29541028800000002</v>
-      </c>
-      <c r="I66">
-        <v>-0.53846747500000003</v>
-      </c>
-      <c r="J66">
-        <v>-0.35683378900000001</v>
-      </c>
-      <c r="K66">
-        <v>5</v>
-      </c>
-      <c r="L66">
-        <v>662.44063949999997</v>
-      </c>
-      <c r="M66">
-        <v>6.02</v>
-      </c>
-      <c r="N66">
-        <v>712.60200850000001</v>
-      </c>
-      <c r="O66">
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>75</v>
-      </c>
-      <c r="B67">
-        <v>3</v>
-      </c>
-      <c r="C67">
-        <v>82</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
-      </c>
-      <c r="E67" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" t="s">
-        <v>102</v>
-      </c>
-      <c r="G67" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67">
-        <v>1.0896654619999999</v>
-      </c>
-      <c r="I67">
-        <v>0.104217142</v>
-      </c>
-      <c r="J67">
-        <v>0.92675638299999996</v>
-      </c>
-      <c r="K67">
-        <v>9</v>
-      </c>
-      <c r="L67">
-        <v>582.85804840000003</v>
-      </c>
-      <c r="M67">
-        <v>33.961111109999997</v>
-      </c>
-      <c r="N67">
-        <v>473.64904860000001</v>
-      </c>
-      <c r="O67">
-        <v>41.333333330000002</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>76</v>
-      </c>
-      <c r="B68">
-        <v>3</v>
-      </c>
-      <c r="C68">
-        <v>27</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>99</v>
-      </c>
-      <c r="F68" t="s">
-        <v>99</v>
-      </c>
-      <c r="G68" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68">
-        <v>0.57229950399999996</v>
-      </c>
       <c r="I68">
-        <v>0.30791085600000001</v>
+        <v>7.2864852009999996</v>
       </c>
       <c r="J68">
-        <v>0.49600789299999998</v>
+        <v>7.5374999999999996</v>
       </c>
       <c r="K68">
-        <v>3</v>
+        <v>74.881078220000006</v>
       </c>
       <c r="L68">
-        <v>7.335183668</v>
+        <v>29.25</v>
       </c>
       <c r="M68">
-        <v>9.3000000000000007</v>
+        <v>-1.480982617</v>
       </c>
       <c r="N68">
-        <v>96.695031709999995</v>
-      </c>
-      <c r="O68">
-        <v>31.666666670000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1.12615153</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C69">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F69" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G69" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H69">
-        <v>0.14600803400000001</v>
+        <v>7</v>
       </c>
       <c r="I69">
-        <v>0.29941750700000003</v>
+        <v>67.669485989999998</v>
       </c>
       <c r="J69">
-        <v>0.285754022</v>
+        <v>26.43571429</v>
       </c>
       <c r="K69">
-        <v>6</v>
+        <v>398.85412259999998</v>
       </c>
       <c r="L69">
-        <v>288.04049020000002</v>
+        <v>40.571428570000002</v>
       </c>
       <c r="M69">
-        <v>17.524999999999999</v>
+        <v>1.2102951879999999</v>
       </c>
       <c r="N69">
-        <v>314.06765330000002</v>
-      </c>
-      <c r="O69">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+        <v>0.13331119399999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C70">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F70" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G70" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H70">
-        <v>0.49535813899999998</v>
+        <v>8</v>
       </c>
       <c r="I70">
-        <v>0.84224839600000001</v>
+        <v>145.4202894</v>
       </c>
       <c r="J70">
-        <v>0.77555965800000004</v>
+        <v>11.55625</v>
       </c>
       <c r="K70">
-        <v>7</v>
+        <v>676.24524310000004</v>
       </c>
       <c r="L70">
-        <v>40.104940540000001</v>
+        <v>47.125</v>
       </c>
       <c r="M70">
-        <v>24.678571430000002</v>
+        <v>7.4919349999999999E-3</v>
       </c>
       <c r="N70">
-        <v>559.04175480000004</v>
-      </c>
-      <c r="O70">
-        <v>55.428571429999998</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.3990206869999999</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C71">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F71" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G71" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H71">
-        <v>0.50081691299999997</v>
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>0.123245705</v>
+        <v>6.5945190269999996</v>
       </c>
       <c r="J71">
-        <v>0.35078269099999998</v>
+        <v>10.725</v>
       </c>
       <c r="K71">
-        <v>3</v>
+        <v>74.881078220000006</v>
       </c>
       <c r="L71">
-        <v>11.95773256</v>
+        <v>36.25</v>
       </c>
       <c r="M71">
-        <v>8.9666666670000001</v>
+        <v>-1.4737407769999999</v>
       </c>
       <c r="N71">
-        <v>126.6781184</v>
-      </c>
-      <c r="O71">
-        <v>31.666666670000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1.3017229699999999</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C72">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F72" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G72" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H72">
-        <v>1.767310969</v>
+        <v>14</v>
       </c>
       <c r="I72">
-        <v>1.3682607950000001</v>
+        <v>67.680565540000003</v>
       </c>
       <c r="J72">
-        <v>1.672795351</v>
+        <v>82.764285709999996</v>
       </c>
       <c r="K72">
-        <v>6</v>
+        <v>478.1580338</v>
       </c>
       <c r="L72">
-        <v>10630.75253</v>
+        <v>61.214285709999999</v>
       </c>
       <c r="M72">
-        <v>18.25</v>
+        <v>1.687125143</v>
       </c>
       <c r="N72">
-        <v>1226.2087739999999</v>
-      </c>
-      <c r="O72">
-        <v>50.833333330000002</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.63620287399999997</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B73">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C73">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F73" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G73" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="H73">
-        <v>-0.60633212299999995</v>
+        <v>9</v>
       </c>
       <c r="I73">
-        <v>-1.1015913230000001</v>
+        <v>10435.15573</v>
       </c>
       <c r="J73">
-        <v>-1.154009726</v>
+        <v>22.288888889999999</v>
       </c>
       <c r="K73">
-        <v>11</v>
+        <v>1396.617336</v>
       </c>
       <c r="L73">
-        <v>156.75875260000001</v>
+        <v>62.222222219999999</v>
       </c>
       <c r="M73">
-        <v>88.836363640000002</v>
+        <v>0.42291588400000002</v>
       </c>
       <c r="N73">
-        <v>835.41226219999999</v>
-      </c>
-      <c r="O73">
-        <v>72.727272729999996</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.4387139410000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B74">
         <v>3</v>
@@ -4738,42 +4524,39 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G74" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H74">
-        <v>0.57704452699999997</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>0.30805809699999998</v>
+        <v>6.341834038</v>
       </c>
       <c r="J74">
-        <v>0.47536405399999998</v>
+        <v>7.8333333329999997</v>
       </c>
       <c r="K74">
-        <v>3</v>
+        <v>42.534355179999999</v>
       </c>
       <c r="L74">
-        <v>6.341834038</v>
+        <v>21.666666670000001</v>
       </c>
       <c r="M74">
-        <v>7.8333333329999997</v>
+        <v>-1.4244419189999999</v>
       </c>
       <c r="N74">
-        <v>42.534355179999999</v>
-      </c>
-      <c r="O74">
-        <v>21.666666670000001</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1.288016574</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B75">
         <v>3</v>
@@ -4785,42 +4568,39 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F75" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G75" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H75">
-        <v>0.59576952999999999</v>
+        <v>12</v>
       </c>
       <c r="I75">
-        <v>0.38588115099999998</v>
+        <v>86.941162790000007</v>
       </c>
       <c r="J75">
-        <v>0.66659145600000003</v>
+        <v>26.333333329999999</v>
       </c>
       <c r="K75">
-        <v>7</v>
+        <v>340.72040170000002</v>
       </c>
       <c r="L75">
-        <v>671.62628959999995</v>
+        <v>45</v>
       </c>
       <c r="M75">
-        <v>13.514285709999999</v>
+        <v>1.2915545859999999</v>
       </c>
       <c r="N75">
-        <v>859.22621560000005</v>
-      </c>
-      <c r="O75">
-        <v>40.714285709999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-0.401930756</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="B76">
         <v>3</v>
@@ -4832,42 +4612,39 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G76" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H76">
-        <v>0.63066531000000003</v>
+        <v>7</v>
       </c>
       <c r="I76">
-        <v>-1.819485684</v>
+        <v>671.62628959999995</v>
       </c>
       <c r="J76">
-        <v>2.3583574E-2</v>
+        <v>13.514285709999999</v>
       </c>
       <c r="K76">
-        <v>12</v>
+        <v>859.22621560000005</v>
       </c>
       <c r="L76">
-        <v>86.941162790000007</v>
+        <v>40.714285709999999</v>
       </c>
       <c r="M76">
-        <v>26.333333329999999</v>
+        <v>0.26318285699999999</v>
       </c>
       <c r="N76">
-        <v>340.72040170000002</v>
-      </c>
-      <c r="O76">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2.1345016330000002</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="B77">
         <v>3</v>
@@ -4879,42 +4656,39 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F77" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="G77" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H77">
-        <v>0.57229950399999996</v>
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>0.30791085600000001</v>
+        <v>7.2864852009999996</v>
       </c>
       <c r="J77">
-        <v>0.50423866900000003</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>74.881078220000006</v>
       </c>
       <c r="L77">
-        <v>7.2864852009999996</v>
+        <v>31.666666670000001</v>
       </c>
       <c r="M77">
-        <v>9.3000000000000007</v>
+        <v>-1.14938385</v>
       </c>
       <c r="N77">
-        <v>74.881078220000006</v>
-      </c>
-      <c r="O77">
-        <v>31.666666670000001</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1.12615153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B78">
         <v>3</v>
@@ -4926,42 +4700,39 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="F78" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="G78" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H78">
-        <v>0.74857730499999997</v>
+        <v>10</v>
       </c>
       <c r="I78">
-        <v>0.95799157899999998</v>
+        <v>142.62999339999999</v>
       </c>
       <c r="J78">
-        <v>1.005816474</v>
+        <v>29.504999999999999</v>
       </c>
       <c r="K78">
-        <v>8</v>
+        <v>679.26585620000003</v>
       </c>
       <c r="L78">
-        <v>377.56956000000002</v>
+        <v>58</v>
       </c>
       <c r="M78">
-        <v>20.806249999999999</v>
+        <v>2.5708056350000001</v>
       </c>
       <c r="N78">
-        <v>874.38477799999998</v>
-      </c>
-      <c r="O78">
-        <v>52.875</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1.386648471</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B79">
         <v>3</v>
@@ -4973,42 +4744,39 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
+        <v>23</v>
+      </c>
+      <c r="F79" t="s">
+        <v>25</v>
+      </c>
+      <c r="G79" t="s">
+        <v>10</v>
+      </c>
+      <c r="H79">
+        <v>8</v>
+      </c>
+      <c r="I79">
+        <v>377.56956000000002</v>
+      </c>
+      <c r="J79">
+        <v>20.806249999999999</v>
+      </c>
+      <c r="K79">
+        <v>874.38477799999998</v>
+      </c>
+      <c r="L79">
+        <v>52.875</v>
+      </c>
+      <c r="M79">
+        <v>1.3371299080000001</v>
+      </c>
+      <c r="N79">
+        <v>3.573211143</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>99</v>
-      </c>
-      <c r="F79" t="s">
-        <v>102</v>
-      </c>
-      <c r="G79" t="s">
-        <v>28</v>
-      </c>
-      <c r="H79">
-        <v>-0.323019907</v>
-      </c>
-      <c r="I79">
-        <v>0.74814278499999998</v>
-      </c>
-      <c r="J79">
-        <v>0.27972180000000002</v>
-      </c>
-      <c r="K79">
-        <v>10</v>
-      </c>
-      <c r="L79">
-        <v>142.62999339999999</v>
-      </c>
-      <c r="M79">
-        <v>29.504999999999999</v>
-      </c>
-      <c r="N79">
-        <v>679.26585620000003</v>
-      </c>
-      <c r="O79">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>88</v>
       </c>
       <c r="B80">
         <v>3</v>
@@ -5020,42 +4788,39 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
+        <v>24</v>
+      </c>
+      <c r="F80" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80">
+        <v>4</v>
+      </c>
+      <c r="I80">
+        <v>26.195998939999999</v>
+      </c>
+      <c r="J80">
+        <v>14.225</v>
+      </c>
+      <c r="K80">
+        <v>81.963530660000004</v>
+      </c>
+      <c r="L80">
+        <v>28.75</v>
+      </c>
+      <c r="M80">
+        <v>-1.8712562260000001</v>
+      </c>
+      <c r="N80">
+        <v>-1.2872104419999999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>100</v>
-      </c>
-      <c r="F80" t="s">
-        <v>99</v>
-      </c>
-      <c r="G80" t="s">
-        <v>28</v>
-      </c>
-      <c r="H80">
-        <v>1.004669509</v>
-      </c>
-      <c r="I80">
-        <v>0.352242524</v>
-      </c>
-      <c r="J80">
-        <v>0.79316147400000003</v>
-      </c>
-      <c r="K80">
-        <v>4</v>
-      </c>
-      <c r="L80">
-        <v>26.195998939999999</v>
-      </c>
-      <c r="M80">
-        <v>14.225</v>
-      </c>
-      <c r="N80">
-        <v>81.963530660000004</v>
-      </c>
-      <c r="O80">
-        <v>28.75</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>89</v>
       </c>
       <c r="B81">
         <v>3</v>
@@ -5067,42 +4832,39 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F81" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81">
+        <v>15</v>
+      </c>
+      <c r="I81">
+        <v>194.13447669999999</v>
+      </c>
+      <c r="J81">
+        <v>79.346666670000005</v>
+      </c>
+      <c r="K81">
+        <v>555.65539109999997</v>
+      </c>
+      <c r="L81">
+        <v>68</v>
+      </c>
+      <c r="M81">
+        <v>2.0412713920000001</v>
+      </c>
+      <c r="N81">
+        <v>-0.49082342899999998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>101</v>
-      </c>
-      <c r="G81" t="s">
-        <v>28</v>
-      </c>
-      <c r="H81">
-        <v>2.4982482529999999</v>
-      </c>
-      <c r="I81">
-        <v>1.060528259</v>
-      </c>
-      <c r="J81">
-        <v>2.2160888569999999</v>
-      </c>
-      <c r="K81">
-        <v>8</v>
-      </c>
-      <c r="L81">
-        <v>10574.430469999999</v>
-      </c>
-      <c r="M81">
-        <v>28.737500000000001</v>
-      </c>
-      <c r="N81">
-        <v>1469.826638</v>
-      </c>
-      <c r="O81">
-        <v>48.75</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>90</v>
       </c>
       <c r="B82">
         <v>3</v>
@@ -5114,37 +4876,34 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>100</v>
+        <v>24</v>
       </c>
       <c r="F82" t="s">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G82" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="H82">
-        <v>-0.71452410099999997</v>
+        <v>8</v>
       </c>
       <c r="I82">
-        <v>-0.12706659100000001</v>
+        <v>10574.430469999999</v>
       </c>
       <c r="J82">
-        <v>-0.81695807399999998</v>
+        <v>28.737500000000001</v>
       </c>
       <c r="K82">
-        <v>15</v>
+        <v>1469.826638</v>
       </c>
       <c r="L82">
-        <v>194.13447669999999</v>
+        <v>48.75</v>
       </c>
       <c r="M82">
-        <v>79.346666670000005</v>
+        <v>-0.28759168899999998</v>
       </c>
       <c r="N82">
-        <v>555.65539109999997</v>
-      </c>
-      <c r="O82">
-        <v>68</v>
+        <v>2.5790703009999998</v>
       </c>
     </row>
   </sheetData>
@@ -5153,10 +4912,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
